--- a/commands/cdte1/cdte1_command_deck.xlsx
+++ b/commands/cdte1/cdte1_command_deck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi4-commands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi4-commands/commands/cdte1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E31E5-1BCB-E943-A77C-85DD67A3C2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459A25F-CF49-2744-8EB2-0C8B6E25F8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>0x4d</t>
   </si>
   <si>
-    <t>0x7d</t>
-  </si>
-  <si>
     <t>0x3c3c0100000000003c3c3c3c</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>read MACRO for event data in ring buffer from canister (see Formatter implementation)</t>
+  </si>
+  <si>
+    <t>0x75</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -623,6 +623,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,10 +941,10 @@
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21:Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1370,7 @@
     </row>
     <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>55</v>
@@ -1445,7 +1446,7 @@
         <v>73</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA6" s="25" t="s">
         <v>41</v>
@@ -1454,12 +1455,12 @@
         <v>69</v>
       </c>
       <c r="AC6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>55</v>
@@ -1487,7 +1488,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>70</v>
@@ -1535,7 +1536,7 @@
         <v>73</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA7" s="25" t="s">
         <v>41</v>
@@ -1544,12 +1545,12 @@
         <v>69</v>
       </c>
       <c r="AC7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>55</v>
@@ -1577,10 +1578,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1625,7 +1626,7 @@
         <v>73</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA8" s="25" t="s">
         <v>41</v>
@@ -1634,12 +1635,12 @@
         <v>69</v>
       </c>
       <c r="AC8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>55</v>
@@ -1667,7 +1668,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>70</v>
@@ -1715,7 +1716,7 @@
         <v>73</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA9" s="25" t="s">
         <v>41</v>
@@ -1724,12 +1725,12 @@
         <v>69</v>
       </c>
       <c r="AC9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>55</v>
@@ -1757,10 +1758,10 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1805,7 +1806,7 @@
         <v>73</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="25" t="s">
         <v>41</v>
@@ -1814,12 +1815,12 @@
         <v>69</v>
       </c>
       <c r="AC10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>55</v>
@@ -1847,7 +1848,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>70</v>
@@ -1895,7 +1896,7 @@
         <v>73</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA11" s="25" t="s">
         <v>41</v>
@@ -1904,12 +1905,12 @@
         <v>69</v>
       </c>
       <c r="AC11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>55</v>
@@ -1940,7 +1941,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1985,7 +1986,7 @@
         <v>73</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA12" s="25" t="s">
         <v>41</v>
@@ -1994,12 +1995,12 @@
         <v>69</v>
       </c>
       <c r="AC12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>55</v>
@@ -2075,7 +2076,7 @@
         <v>73</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA13" s="25" t="s">
         <v>41</v>
@@ -2084,12 +2085,12 @@
         <v>69</v>
       </c>
       <c r="AC13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>55</v>
@@ -2117,7 +2118,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>71</v>
@@ -2165,7 +2166,7 @@
         <v>73</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA14" s="25" t="s">
         <v>41</v>
@@ -2174,12 +2175,12 @@
         <v>69</v>
       </c>
       <c r="AC14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>55</v>
@@ -2210,7 +2211,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -2255,7 +2256,7 @@
         <v>73</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA15" s="25" t="s">
         <v>41</v>
@@ -2264,12 +2265,12 @@
         <v>69</v>
       </c>
       <c r="AC15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>55</v>
@@ -2345,7 +2346,7 @@
         <v>73</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA16" s="25" t="s">
         <v>41</v>
@@ -2354,12 +2355,12 @@
         <v>69</v>
       </c>
       <c r="AC16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>55</v>
@@ -2387,7 +2388,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>71</v>
@@ -2435,7 +2436,7 @@
         <v>73</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA17" s="25" t="s">
         <v>41</v>
@@ -2444,12 +2445,12 @@
         <v>69</v>
       </c>
       <c r="AC17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>55</v>
@@ -2525,7 +2526,7 @@
         <v>73</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA18" s="25" t="s">
         <v>41</v>
@@ -2534,7 +2535,7 @@
         <v>69</v>
       </c>
       <c r="AC18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -2730,7 +2731,7 @@
         <v>68</v>
       </c>
       <c r="Y21" s="22" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>41</v>
@@ -2820,7 +2821,7 @@
         <v>68</v>
       </c>
       <c r="Y22" s="22" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>41</v>
@@ -2909,8 +2910,8 @@
       <c r="X23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y23" s="22" t="s">
-        <v>74</v>
+      <c r="Y23" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>41</v>
@@ -2999,8 +3000,8 @@
       <c r="X24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y24" s="22" t="s">
-        <v>74</v>
+      <c r="Y24" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>41</v>
@@ -3017,7 +3018,7 @@
     </row>
     <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>55</v>
@@ -3089,25 +3090,25 @@
       <c r="X25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y25" s="22" t="s">
+      <c r="Y25" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA25" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA25" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="AB25" t="s">
         <v>69</v>
       </c>
       <c r="AC25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>55</v>
@@ -3179,25 +3180,25 @@
       <c r="X26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y26" s="22" t="s">
-        <v>74</v>
+      <c r="Y26" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA26" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s">
         <v>69</v>
       </c>
       <c r="AC26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>55</v>
@@ -3269,25 +3270,25 @@
       <c r="X27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y27" s="22" t="s">
-        <v>74</v>
+      <c r="Y27" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA27" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s">
         <v>69</v>
       </c>
       <c r="AC27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>55</v>
@@ -3359,25 +3360,25 @@
       <c r="X28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y28" s="22" t="s">
-        <v>74</v>
+      <c r="Y28" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA28" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB28" t="s">
         <v>69</v>
       </c>
       <c r="AC28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>55</v>
@@ -3449,25 +3450,25 @@
       <c r="X29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y29" s="22" t="s">
-        <v>74</v>
+      <c r="Y29" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA29" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB29" t="s">
         <v>69</v>
       </c>
       <c r="AC29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>55</v>
@@ -3539,25 +3540,25 @@
       <c r="X30" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y30" s="22" t="s">
-        <v>74</v>
+      <c r="Y30" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA30" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB30" t="s">
         <v>69</v>
       </c>
       <c r="AC30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>55</v>
@@ -3629,25 +3630,25 @@
       <c r="X31" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y31" s="22" t="s">
-        <v>74</v>
+      <c r="Y31" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA31" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s">
         <v>69</v>
       </c>
       <c r="AC31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>55</v>
@@ -3659,7 +3660,7 @@
         <v>100001</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>17</v>
@@ -3718,20 +3719,20 @@
       <c r="X32" t="s">
         <v>68</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>74</v>
+      <c r="Y32" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s">
         <v>69</v>
       </c>
       <c r="AC32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -3808,8 +3809,8 @@
       <c r="X33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y33" s="22" t="s">
-        <v>74</v>
+      <c r="Y33" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>41</v>
@@ -3898,8 +3899,8 @@
       <c r="X34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y34" s="22" t="s">
-        <v>74</v>
+      <c r="Y34" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z34" s="3" t="s">
         <v>41</v>
@@ -3988,8 +3989,8 @@
       <c r="X35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y35" s="22" t="s">
-        <v>74</v>
+      <c r="Y35" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>41</v>
@@ -4078,8 +4079,8 @@
       <c r="X36" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y36" s="22" t="s">
-        <v>74</v>
+      <c r="Y36" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z36" s="3" t="s">
         <v>41</v>
@@ -4168,8 +4169,8 @@
       <c r="X37" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y37" s="22" t="s">
-        <v>74</v>
+      <c r="Y37" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z37" s="3" t="s">
         <v>41</v>
@@ -4258,8 +4259,8 @@
       <c r="X38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y38" s="22" t="s">
-        <v>74</v>
+      <c r="Y38" s="29" t="s">
+        <v>143</v>
       </c>
       <c r="Z38" s="3" t="s">
         <v>41</v>

--- a/commands/cdte1/cdte1_command_deck.xlsx
+++ b/commands/cdte1/cdte1_command_deck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi4-commands/commands/cdte1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi-4matter/foxsi4-commands/commands/cdte1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459A25F-CF49-2744-8EB2-0C8B6E25F8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09999D6B-1554-154C-82FF-1CFDDEB444AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="all_systems" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="118">
   <si>
     <t>R=1/W=0</t>
   </si>
@@ -78,81 +78,27 @@
     <t>description</t>
   </si>
   <si>
-    <t>ping</t>
-  </si>
-  <si>
     <t>reply</t>
   </si>
   <si>
-    <t>pingback</t>
-  </si>
-  <si>
     <t>—</t>
   </si>
   <si>
     <t>length [B]</t>
   </si>
   <si>
-    <t>read_word</t>
-  </si>
-  <si>
-    <t>read_block</t>
-  </si>
-  <si>
     <t>addr</t>
   </si>
   <si>
-    <t>len</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
     <t>read_err_flag</t>
   </si>
   <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>ground_off</t>
-  </si>
-  <si>
-    <t>ground_on</t>
-  </si>
-  <si>
-    <t>notify_prelaunch</t>
-  </si>
-  <si>
-    <t>notify_launch_hold</t>
-  </si>
-  <si>
-    <t>notify_shutter_open</t>
-  </si>
-  <si>
-    <t>notify_shutter_close</t>
-  </si>
-  <si>
-    <t>notify_attenuator_in</t>
-  </si>
-  <si>
-    <t>notify_power_off</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>CdTe select</t>
   </si>
   <si>
-    <t>mask</t>
-  </si>
-  <si>
     <t>instruction</t>
   </si>
   <si>
@@ -168,9 +114,6 @@
     <t>applicability</t>
   </si>
   <si>
-    <t>control power output with Formatter local SPI bus</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
@@ -204,42 +147,9 @@
     <t>0000 0000</t>
   </si>
   <si>
-    <t>test communication with system</t>
-  </si>
-  <si>
-    <t>read a block of memory at address</t>
-  </si>
-  <si>
-    <t>read one word from memory at address</t>
-  </si>
-  <si>
     <t>read error status flags from system</t>
   </si>
   <si>
-    <t>turn systems off (to power distribution system)</t>
-  </si>
-  <si>
-    <t>turn systems on (to power distribution system)</t>
-  </si>
-  <si>
-    <t>notify system that launch will occur soon</t>
-  </si>
-  <si>
-    <t>notify system that launch has been put on hold</t>
-  </si>
-  <si>
-    <t>notify system that the rocket shutter door has opened</t>
-  </si>
-  <si>
-    <t>notify system that the rocket shutter door has closed</t>
-  </si>
-  <si>
-    <t>notify system that the attenuator ring has been inserted</t>
-  </si>
-  <si>
-    <t>notify system that power will be cut soon</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -465,7 +375,19 @@
     <t>read MACRO for event data in ring buffer from canister (see Formatter implementation)</t>
   </si>
   <si>
-    <t>0x75</t>
+    <t>0x7d</t>
+  </si>
+  <si>
+    <t>read_can1_all_hk</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>read all housekeeping data from canister</t>
+  </si>
+  <si>
+    <t>0x31c</t>
   </si>
 </sst>
 </file>
@@ -614,6 +536,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,7 +546,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F008E-2DBD-E446-BC2F-AA0D9FF4122A}">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21:Y38"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -971,50 +893,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="28"/>
+      <c r="Y1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29"/>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1029,25 +951,25 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>8</v>
@@ -1056,25 +978,25 @@
         <v>9</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>10</v>
@@ -1083,13 +1005,13 @@
         <v>11</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>12</v>
@@ -1099,48 +1021,48 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
+      <c r="A3" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="10">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E19" si="0">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C3,7) + BIN2DEC($D3)))</f>
-        <v>0x80</v>
+        <f t="shared" ref="E3:E14" si="0">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C3,7) + BIN2DEC($D3)))</f>
+        <v>0xA0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="6">
         <v>0</v>
@@ -1149,169 +1071,169 @@
         <v>1</v>
       </c>
       <c r="Q3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
+      <c r="A4" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="10">
-        <v>1</v>
+        <v>100010</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0x81</v>
+        <v>0xA2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="16">
+        <v>0</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
-        <v>1</v>
-      </c>
-      <c r="S4" s="6">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
-        <v>1</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1</v>
-      </c>
-      <c r="W4" s="16">
-        <v>0</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" s="25" t="s">
-        <v>41</v>
-      </c>
       <c r="AB4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
+      <c r="A5" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="10">
-        <v>10</v>
+        <v>100011</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0x82</v>
+        <v>0xA3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="13">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1329,79 +1251,79 @@
         <v>1</v>
       </c>
       <c r="Q5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="16">
         <v>0</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="10">
-        <v>100000</v>
+        <v>100100</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f t="shared" ref="E6:E17" si="1">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C6,7) + BIN2DEC($D6)))</f>
-        <v>0xA0</v>
+        <f t="shared" si="0"/>
+        <v>0xA4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1440,58 +1362,58 @@
         <v>0</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AA6" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="10">
-        <v>100010</v>
+        <v>100101</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xA2</v>
+        <f t="shared" si="0"/>
+        <v>0xA5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1530,58 +1452,58 @@
         <v>0</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="AA7" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="10">
-        <v>100011</v>
+        <v>100110</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xA3</v>
+        <f t="shared" si="0"/>
+        <v>0xA6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1620,58 +1542,58 @@
         <v>0</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="AA8" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="10">
-        <v>100100</v>
+        <v>110000</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xA4</v>
+        <f t="shared" si="0"/>
+        <v>0xB0</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="K9" s="23" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1710,58 +1632,58 @@
         <v>0</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="AA9" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="10">
-        <v>100101</v>
+        <v>110001</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xA5</v>
+        <f t="shared" si="0"/>
+        <v>0xB1</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="K10" s="23" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1800,58 +1722,58 @@
         <v>0</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AA10" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="10">
-        <v>100110</v>
+        <v>110010</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xA6</v>
+        <f t="shared" si="0"/>
+        <v>0xB2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -1890,58 +1812,58 @@
         <v>0</v>
       </c>
       <c r="X11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Y11" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="AA11" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="10">
-        <v>110000</v>
+        <v>110100</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xB0</v>
+        <f t="shared" si="0"/>
+        <v>0xB4</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="K12" s="23" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1980,58 +1902,58 @@
         <v>0</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="10">
-        <v>110001</v>
+        <v>110101</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xB1</v>
+        <f t="shared" si="0"/>
+        <v>0xB5</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="K13" s="23" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -2070,148 +1992,148 @@
         <v>0</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y13" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AA13" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="10">
-        <v>110010</v>
+        <v>110110</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xB2</v>
+        <f t="shared" si="0"/>
+        <v>0xB6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="K14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="16">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="16">
-        <v>0</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y14" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="AA14" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="10">
-        <v>110100</v>
+        <v>1110</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xB4</v>
+        <f>_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C15,7) + BIN2DEC($D15)))</f>
+        <v>0x8E</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -2250,22 +2172,22 @@
         <v>0</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y15" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="AA15" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -2273,35 +2195,35 @@
         <v>114</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="10">
-        <v>110101</v>
+        <v>111111</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xB5</v>
+        <f>_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C16,7) + BIN2DEC($D16)))</f>
+        <v>0xBF</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -2340,64 +2262,64 @@
         <v>0</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y16" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AA16" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>115</v>
+      <c r="A17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="10">
-        <v>110110</v>
+        <v>1111</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0xB6</v>
+        <f t="shared" ref="E17" si="1">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C17,7) + BIN2DEC($D17)))</f>
+        <v>0x8F</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="L17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="6">
         <v>0</v>
@@ -2409,175 +2331,113 @@
         <v>1</v>
       </c>
       <c r="Q17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Y17" s="22" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="AA17" s="25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1110</v>
-      </c>
-      <c r="E18" s="3" t="str">
-        <f>_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C18,7) + BIN2DEC($D18)))</f>
-        <v>0x8E</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6">
-        <v>0</v>
-      </c>
-      <c r="W18" s="16">
-        <v>0</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y18" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>142</v>
-      </c>
+    <row r="18" spans="1:29" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="24"/>
     </row>
     <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
+      <c r="A19" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="10">
-        <v>1111</v>
+        <v>10000</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0x8F</v>
+        <f t="shared" ref="E19:E25" si="2">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C19,7) + BIN2DEC($D19)))</f>
+        <v>0x10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="6">
         <v>0</v>
@@ -2589,290 +2449,352 @@
         <v>1</v>
       </c>
       <c r="Q19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y19" s="22" t="s">
-        <v>73</v>
+        <v>38</v>
+      </c>
+      <c r="Y19" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA19" s="25" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="AA19" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="AB19" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC19" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="24"/>
+    <row r="20" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10001</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>0x11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+      <c r="W20" s="16">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
+      <c r="A21" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="10">
-        <v>1000000</v>
+        <v>10010</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" ref="E21:E36" si="2">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C21,7) + BIN2DEC($D21)))</f>
-        <v>0x40</v>
+        <f t="shared" si="2"/>
+        <v>0x12</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0</v>
+      </c>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <v>0</v>
-      </c>
-      <c r="W21" s="16">
-        <v>0</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y21" s="22" t="s">
-        <v>143</v>
+      <c r="Y21" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AA21" s="23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC21" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
+      <c r="A22" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="10">
-        <v>1000010</v>
+        <v>10011</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x42</v>
+        <v>0x13</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0</v>
+      </c>
+      <c r="W22" s="16">
+        <v>0</v>
+      </c>
+      <c r="X22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
-        <v>0</v>
-      </c>
-      <c r="W22" s="16">
-        <v>0</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y22" s="22" t="s">
-        <v>143</v>
+      <c r="Y22" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AA22" s="23" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB22" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC22" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
+      <c r="A23" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>1000100</v>
+        <v>10100</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x44</v>
+        <v>0x14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="6">
         <v>0</v>
@@ -2884,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -2908,61 +2830,61 @@
         <v>0</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y23" s="29" t="s">
-        <v>143</v>
+        <v>38</v>
+      </c>
+      <c r="Y23" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AA23" s="23" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AB23" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC23" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
+      <c r="A24" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
       <c r="D24" s="10">
-        <v>1000101</v>
+        <v>10101</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x45</v>
+        <v>0x15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="6">
         <v>0</v>
@@ -2974,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -2998,58 +2920,58 @@
         <v>0</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y24" s="29" t="s">
-        <v>143</v>
+        <v>38</v>
+      </c>
+      <c r="Y24" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AA24" s="23" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB24" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC24" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="10">
-        <v>10000</v>
+        <v>10110</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0x10</v>
+        <v>0x16</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L25" s="6">
         <v>0</v>
@@ -3088,58 +3010,57 @@
         <v>0</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y25" s="29" t="s">
-        <v>143</v>
+        <v>38</v>
+      </c>
+      <c r="Y25" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="AA25" s="23" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="AB25" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC25" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="10">
-        <v>10001</v>
-      </c>
-      <c r="E26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x11</v>
+        <v>100001</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -3174,1105 +3095,26 @@
       <c r="V26" s="6">
         <v>0</v>
       </c>
-      <c r="W26" s="16">
-        <v>0</v>
-      </c>
-      <c r="X26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y26" s="29" t="s">
-        <v>143</v>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y26" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA26" s="23" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="AB26" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>10010</v>
-      </c>
-      <c r="E27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x12</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6">
-        <v>0</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0</v>
-      </c>
-      <c r="V27" s="6">
-        <v>0</v>
-      </c>
-      <c r="W27" s="16">
-        <v>0</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y27" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA27" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>10011</v>
-      </c>
-      <c r="E28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x13</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
-        <v>0</v>
-      </c>
-      <c r="T28" s="6">
-        <v>0</v>
-      </c>
-      <c r="U28" s="6">
-        <v>0</v>
-      </c>
-      <c r="V28" s="6">
-        <v>0</v>
-      </c>
-      <c r="W28" s="16">
-        <v>0</v>
-      </c>
-      <c r="X28" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y28" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA28" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10">
-        <v>10100</v>
-      </c>
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x14</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0</v>
-      </c>
-      <c r="S29" s="6">
-        <v>0</v>
-      </c>
-      <c r="T29" s="6">
-        <v>0</v>
-      </c>
-      <c r="U29" s="6">
-        <v>0</v>
-      </c>
-      <c r="V29" s="6">
-        <v>0</v>
-      </c>
-      <c r="W29" s="16">
-        <v>0</v>
-      </c>
-      <c r="X29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y29" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA29" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10">
-        <v>10101</v>
-      </c>
-      <c r="E30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x15</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
-      <c r="T30" s="6">
-        <v>0</v>
-      </c>
-      <c r="U30" s="6">
-        <v>0</v>
-      </c>
-      <c r="V30" s="6">
-        <v>0</v>
-      </c>
-      <c r="W30" s="16">
-        <v>0</v>
-      </c>
-      <c r="X30" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y30" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA30" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10">
-        <v>10110</v>
-      </c>
-      <c r="E31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x16</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0</v>
-      </c>
-      <c r="T31" s="6">
-        <v>0</v>
-      </c>
-      <c r="U31" s="6">
-        <v>0</v>
-      </c>
-      <c r="V31" s="6">
-        <v>0</v>
-      </c>
-      <c r="W31" s="16">
-        <v>0</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y31" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA31" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="10">
-        <v>100001</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0</v>
-      </c>
-      <c r="R32" s="6">
-        <v>0</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0</v>
-      </c>
-      <c r="T32" s="6">
-        <v>0</v>
-      </c>
-      <c r="U32" s="6">
-        <v>0</v>
-      </c>
-      <c r="V32" s="6">
-        <v>0</v>
-      </c>
-      <c r="W32" s="6">
-        <v>0</v>
-      </c>
-      <c r="X32" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y32" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1110000</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x70</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L33" s="6">
-        <v>1</v>
-      </c>
-      <c r="M33" s="6">
-        <v>1</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>1</v>
-      </c>
-      <c r="R33" s="6">
-        <v>1</v>
-      </c>
-      <c r="S33" s="6">
-        <v>1</v>
-      </c>
-      <c r="T33" s="6">
-        <v>1</v>
-      </c>
-      <c r="U33" s="6">
-        <v>1</v>
-      </c>
-      <c r="V33" s="6">
-        <v>1</v>
-      </c>
-      <c r="W33" s="16">
-        <v>1</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y33" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1110001</v>
-      </c>
-      <c r="E34" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x71</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="6">
-        <v>1</v>
-      </c>
-      <c r="M34" s="6">
-        <v>1</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>1</v>
-      </c>
-      <c r="R34" s="6">
-        <v>1</v>
-      </c>
-      <c r="S34" s="6">
-        <v>1</v>
-      </c>
-      <c r="T34" s="6">
-        <v>1</v>
-      </c>
-      <c r="U34" s="6">
-        <v>1</v>
-      </c>
-      <c r="V34" s="6">
-        <v>1</v>
-      </c>
-      <c r="W34" s="16">
-        <v>1</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y34" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1110010</v>
-      </c>
-      <c r="E35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x72</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" s="6">
-        <v>1</v>
-      </c>
-      <c r="M35" s="6">
-        <v>1</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>1</v>
-      </c>
-      <c r="R35" s="6">
-        <v>1</v>
-      </c>
-      <c r="S35" s="6">
-        <v>1</v>
-      </c>
-      <c r="T35" s="6">
-        <v>1</v>
-      </c>
-      <c r="U35" s="6">
-        <v>1</v>
-      </c>
-      <c r="V35" s="6">
-        <v>1</v>
-      </c>
-      <c r="W35" s="16">
-        <v>1</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y35" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA35" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1110011</v>
-      </c>
-      <c r="E36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0x73</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" s="6">
-        <v>1</v>
-      </c>
-      <c r="M36" s="6">
-        <v>1</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>1</v>
-      </c>
-      <c r="R36" s="6">
-        <v>1</v>
-      </c>
-      <c r="S36" s="6">
-        <v>1</v>
-      </c>
-      <c r="T36" s="6">
-        <v>1</v>
-      </c>
-      <c r="U36" s="6">
-        <v>1</v>
-      </c>
-      <c r="V36" s="6">
-        <v>1</v>
-      </c>
-      <c r="W36" s="16">
-        <v>1</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y36" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA36" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1110100</v>
-      </c>
-      <c r="E37" s="3" t="str">
-        <f t="shared" ref="E37:E38" si="3">_xlfn.CONCAT("0x", DEC2HEX(_xlfn.BITLSHIFT($C37,7) + BIN2DEC($D37)))</f>
-        <v>0x74</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1</v>
-      </c>
-      <c r="M37" s="6">
-        <v>1</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>1</v>
-      </c>
-      <c r="R37" s="6">
-        <v>1</v>
-      </c>
-      <c r="S37" s="6">
-        <v>1</v>
-      </c>
-      <c r="T37" s="6">
-        <v>1</v>
-      </c>
-      <c r="U37" s="6">
-        <v>1</v>
-      </c>
-      <c r="V37" s="6">
-        <v>1</v>
-      </c>
-      <c r="W37" s="16">
-        <v>1</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y37" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA37" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1111000</v>
-      </c>
-      <c r="E38" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>0x78</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L38" s="6">
-        <v>1</v>
-      </c>
-      <c r="M38" s="6">
-        <v>1</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-      <c r="P38" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>1</v>
-      </c>
-      <c r="R38" s="6">
-        <v>1</v>
-      </c>
-      <c r="S38" s="6">
-        <v>1</v>
-      </c>
-      <c r="T38" s="6">
-        <v>1</v>
-      </c>
-      <c r="U38" s="6">
-        <v>1</v>
-      </c>
-      <c r="V38" s="6">
-        <v>1</v>
-      </c>
-      <c r="W38" s="16">
-        <v>1</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y38" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA38" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/commands/cdte1/cdte1_command_deck.xlsx
+++ b/commands/cdte1/cdte1_command_deck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/Data/formatter/foxsi-4matter/foxsi4-commands/commands/cdte1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanasi/Documents/FOXSI/GSE/GSE-FOXSI-4/foxsi4-commands/commands/cdte1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09999D6B-1554-154C-82FF-1CFDDEB444AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB9538-852B-934A-89F3-170D78AD6BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{1DE950B2-129E-5A4D-8896-FB78BBCF4CAC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="122">
   <si>
     <t>R=1/W=0</t>
   </si>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>0x31c</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>0x000000</t>
+  </si>
+  <si>
+    <t>0xff1741</t>
   </si>
 </sst>
 </file>
@@ -491,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,6 +558,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F008E-2DBD-E446-BC2F-AA0D9FF4122A}">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -888,11 +909,13 @@
     <col min="25" max="25" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.1640625" style="20" customWidth="1"/>
     <col min="27" max="27" width="27.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.1640625" customWidth="1"/>
-    <col min="29" max="29" width="82" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.1640625" customWidth="1"/>
+    <col min="31" max="31" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
@@ -930,8 +953,10 @@
       </c>
       <c r="Z1" s="28"/>
       <c r="AA1" s="29"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,14 +1038,20 @@
       <c r="AA2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>79</v>
       </c>
@@ -1103,14 +1134,20 @@
       <c r="AA3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="32">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD3" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>78</v>
       </c>
@@ -1193,14 +1230,20 @@
       <c r="AA4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="32">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD4" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>77</v>
       </c>
@@ -1283,14 +1326,20 @@
       <c r="AA5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="32">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD5" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>76</v>
       </c>
@@ -1373,14 +1422,20 @@
       <c r="AA6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="32">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD6" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>75</v>
       </c>
@@ -1463,14 +1518,20 @@
       <c r="AA7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="32">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD7" t="s">
         <v>39</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>74</v>
       </c>
@@ -1553,14 +1614,20 @@
       <c r="AA8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="32">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD8" t="s">
         <v>39</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>80</v>
       </c>
@@ -1643,14 +1710,20 @@
       <c r="AA9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="32">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD9" t="s">
         <v>39</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>81</v>
       </c>
@@ -1733,14 +1806,20 @@
       <c r="AA10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="32">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD10" t="s">
         <v>39</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>82</v>
       </c>
@@ -1823,14 +1902,20 @@
       <c r="AA11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="32">
+        <v>16</v>
+      </c>
+      <c r="AC11" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD11" t="s">
         <v>39</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>83</v>
       </c>
@@ -1913,14 +1998,20 @@
       <c r="AA12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="32">
+        <v>17</v>
+      </c>
+      <c r="AC12" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD12" t="s">
         <v>39</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>84</v>
       </c>
@@ -2003,14 +2094,20 @@
       <c r="AA13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="32">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD13" t="s">
         <v>39</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>85</v>
       </c>
@@ -2093,14 +2190,20 @@
       <c r="AA14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="32">
+        <v>19</v>
+      </c>
+      <c r="AC14" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD14" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>111</v>
       </c>
@@ -2183,14 +2286,20 @@
       <c r="AA15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="32">
+        <v>20</v>
+      </c>
+      <c r="AC15" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD15" t="s">
         <v>39</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>114</v>
       </c>
@@ -2273,14 +2382,20 @@
       <c r="AA16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="32">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD16" t="s">
         <v>39</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -2363,14 +2478,20 @@
       <c r="AA17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="32">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD17" t="s">
         <v>39</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" s="8" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2397,8 +2518,10 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="24"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
     </row>
-    <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>50</v>
       </c>
@@ -2481,14 +2604,20 @@
       <c r="AA19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="34">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD19" t="s">
         <v>39</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>51</v>
       </c>
@@ -2571,14 +2700,20 @@
       <c r="AA20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD20" t="s">
         <v>39</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>52</v>
       </c>
@@ -2661,14 +2796,20 @@
       <c r="AA21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="34">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD21" t="s">
         <v>39</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>53</v>
       </c>
@@ -2751,14 +2892,20 @@
       <c r="AA22" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="34">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD22" t="s">
         <v>39</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>54</v>
       </c>
@@ -2841,14 +2988,20 @@
       <c r="AA23" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AB23" s="34">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD23" t="s">
         <v>39</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AE23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>55</v>
       </c>
@@ -2931,14 +3084,20 @@
       <c r="AA24" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" s="34">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD24" t="s">
         <v>39</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>56</v>
       </c>
@@ -3021,14 +3180,20 @@
       <c r="AA25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD25" t="s">
         <v>39</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>102</v>
       </c>
@@ -3110,10 +3275,16 @@
       <c r="AA26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB26" s="3">
+        <v>23</v>
+      </c>
+      <c r="AC26" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD26" t="s">
         <v>39</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>110</v>
       </c>
     </row>
